--- a/testhtml/施設情報.xlsx
+++ b/testhtml/施設情報.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44d2261b83c82508/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44d2261b83c82508/デスクトップ/TEST/testhtml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D066CA252ABDACC1048C70951F11873EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C772E5A-4537-489D-9614-207B360689CA}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D066CA252ABDACC1048C70951F11873EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0920AB-CF51-404A-9853-3D74B386111F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〒811-0321 福岡県福岡市東区西戸崎１８−２５</t>
-  </si>
-  <si>
     <t>092-603-6835</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡市東区西戸崎１８−２５</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -419,13 +423,13 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,18 +449,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{26A015FB-6EF2-4430-BF8D-DF07175C1511}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{092AE9DF-48AB-417C-8808-0C4C96A83A0E}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F39AB63F-E5A6-46EF-B370-F4CEC90D98AF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F39AB63F-E5A6-46EF-B370-F4CEC90D98AF}"/>
+    <hyperlink ref="B3" r:id="rId3" display="〒811-0321 福岡県福岡市東区西戸崎１８−２５" xr:uid="{092AE9DF-48AB-417C-8808-0C4C96A83A0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/testhtml/施設情報.xlsx
+++ b/testhtml/施設情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44d2261b83c82508/デスクトップ/TEST/testhtml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D066CA252ABDACC1048C70951F11873EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0920AB-CF51-404A-9853-3D74B386111F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D066CA252ABDACC1048C70951F11873EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A76CF0-1265-4CC3-92A0-FA69C31C5EC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>施設名</t>
     <rPh sb="0" eb="3">
@@ -65,6 +65,22 @@
     <t>福岡市東区西戸崎１８−２５</t>
     <rPh sb="0" eb="2">
       <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.google.co.jp/maps/search/海の中道サンシャインプール</t>
+  </si>
+  <si>
+    <t>https://syuheishiba.github.io/samplepage.github.io/testhtml/%E6%96%BD%E8%A8%AD%E6%83%85%E5%A0%B1.pdf</t>
+  </si>
+  <si>
+    <t>他のＰＤＦファイルへ飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,12 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -420,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -455,14 +472,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{26A015FB-6EF2-4430-BF8D-DF07175C1511}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F39AB63F-E5A6-46EF-B370-F4CEC90D98AF}"/>
     <hyperlink ref="B3" r:id="rId3" display="〒811-0321 福岡県福岡市東区西戸崎１８−２５" xr:uid="{092AE9DF-48AB-417C-8808-0C4C96A83A0E}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{DBEC87C3-54EE-4E69-ACFA-6CBFC05C1425}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{33352CA1-88A1-418A-8371-104F71F15FD5}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{FF517C02-6CA4-4A8E-8778-44D2727FD19E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>